--- a/afstandmetingen/afstandssensorTest.xlsx
+++ b/afstandmetingen/afstandssensorTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wout\Desktop\Indigo\afstandmetingen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wout\Documents\GitHub\Indigo\afstandmetingen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="distance150q10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -874,7 +874,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
